--- a/Team-Data/2008-09/3-21-2008-09.xlsx
+++ b/Team-Data/2008-09/3-21-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
         <v>41</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.586</v>
+        <v>0.594</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J2" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.46</v>
@@ -696,10 +763,10 @@
         <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O2" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P2" t="n">
         <v>25.3</v>
@@ -729,28 +796,28 @@
         <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA2" t="n">
         <v>20.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,10 +841,10 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>12</v>
@@ -786,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -804,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -813,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -863,43 +930,43 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
         <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
@@ -914,19 +981,19 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -962,16 +1029,16 @@
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>8</v>
@@ -983,22 +1050,22 @@
         <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA3" t="n">
         <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.443</v>
+        <v>0.449</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1051,37 +1118,37 @@
         <v>76.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M4" t="n">
         <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
         <v>23.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.744</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
         <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="U4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V4" t="n">
         <v>15.5</v>
@@ -1093,25 +1160,25 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA4" t="n">
         <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1138,37 +1205,37 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
         <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1282,22 @@
         <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.449</v>
+        <v>0.464</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.452</v>
@@ -1245,31 +1312,31 @@
         <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V5" t="n">
         <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
@@ -1278,19 +1345,19 @@
         <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
         <v>101.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1320,10 +1387,10 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1332,19 +1399,19 @@
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1359,10 +1426,10 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -1397,25 +1464,25 @@
         <v>68</v>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.824</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
@@ -1424,16 +1491,16 @@
         <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.389</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
         <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
@@ -1442,13 +1509,13 @@
         <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
@@ -1457,22 +1524,22 @@
         <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
         <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1496,16 +1563,16 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1517,19 +1584,19 @@
         <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
@@ -1541,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1675,10 +1742,10 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>9</v>
@@ -1696,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1708,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>17</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1878,13 +1945,13 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS8" t="n">
         <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1893,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2069,7 +2136,7 @@
         <v>17</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
         <v>6</v>
@@ -2087,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2251,7 +2318,7 @@
         <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2436,16 +2503,16 @@
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2457,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
         <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>0.408</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,16 +2571,16 @@
         <v>38.7</v>
       </c>
       <c r="J12" t="n">
-        <v>86</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
         <v>0.376</v>
@@ -2528,19 +2595,19 @@
         <v>0.805</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>21.8</v>
       </c>
       <c r="V12" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
@@ -2558,13 +2625,13 @@
         <v>21.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2573,10 +2640,10 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2597,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
         <v>24</v>
@@ -2606,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2618,10 +2685,10 @@
         <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
         <v>13</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2785,34 +2852,34 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS13" t="n">
         <v>26</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>25</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -2865,19 +2932,19 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
       </c>
       <c r="L14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
         <v>0.366</v>
@@ -2886,49 +2953,49 @@
         <v>19.9</v>
       </c>
       <c r="P14" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
         <v>14</v>
@@ -2964,16 +3031,16 @@
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2985,16 +3052,16 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -3032,52 +3099,52 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J15" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
         <v>0.755</v>
       </c>
       <c r="R15" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T15" t="n">
         <v>38.9</v>
@@ -3101,16 +3168,16 @@
         <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3152,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
         <v>29</v>
@@ -3167,10 +3234,10 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3355,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -3411,13 +3478,13 @@
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
@@ -3426,10 +3493,10 @@
         <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
         <v>25.8</v>
@@ -3441,19 +3508,19 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,34 +3529,34 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="AA17" t="n">
         <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC17" t="n">
         <v>-0.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3507,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP17" t="n">
         <v>9</v>
@@ -3516,7 +3583,7 @@
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>24</v>
@@ -3528,16 +3595,16 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -3862,13 +3929,13 @@
         <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
@@ -3886,10 +3953,10 @@
         <v>21</v>
       </c>
       <c r="AT19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU19" t="n">
         <v>25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>26</v>
       </c>
       <c r="AV19" t="n">
         <v>9</v>
@@ -3910,10 +3977,10 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4053,7 +4120,7 @@
         <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
@@ -4068,7 +4135,7 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU20" t="n">
         <v>27</v>
@@ -4077,7 +4144,7 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" t="n">
         <v>28</v>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.406</v>
+        <v>0.412</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4148,73 +4215,73 @@
         <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M21" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O21" t="n">
         <v>18.4</v>
       </c>
       <c r="P21" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R21" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T21" t="n">
         <v>42.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W21" t="n">
         <v>7.3</v>
       </c>
       <c r="X21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
         <v>105.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4244,7 +4311,7 @@
         <v>8</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4253,13 +4320,13 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,7 +4463,7 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>16</v>
@@ -4405,7 +4472,7 @@
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4429,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT22" t="n">
         <v>4</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.739</v>
+        <v>0.735</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
         <v>78.2</v>
@@ -4515,7 +4582,7 @@
         <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.387</v>
@@ -4527,19 +4594,19 @@
         <v>27.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.3</v>
@@ -4557,16 +4624,16 @@
         <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="AC23" t="n">
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4623,10 +4690,10 @@
         <v>16</v>
       </c>
       <c r="AW23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4830,7 @@
         <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.551</v>
+        <v>0.544</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="J25" t="n">
-        <v>80.90000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.506</v>
+        <v>0.505</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
         <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.385</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P25" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q25" t="n">
         <v>0.755</v>
@@ -4897,40 +4964,40 @@
         <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U25" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V25" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W25" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>108.7</v>
+        <v>108.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
@@ -4975,7 +5042,7 @@
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT25" t="n">
         <v>16</v>
@@ -4984,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW25" t="n">
         <v>24</v>
@@ -4999,13 +5066,13 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>2</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -5037,25 +5104,25 @@
         <v>69</v>
       </c>
       <c r="E26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.638</v>
+        <v>0.623</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
         <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5067,25 +5134,25 @@
         <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R26" t="n">
         <v>12.8</v>
       </c>
       <c r="S26" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
         <v>41.4</v>
       </c>
       <c r="U26" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5097,37 +5164,37 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5145,13 +5212,13 @@
         <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
         <v>2</v>
@@ -5163,7 +5230,7 @@
         <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5184,10 +5251,10 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5315,7 +5382,7 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
@@ -5324,7 +5391,7 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5339,7 +5406,7 @@
         <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
@@ -5348,7 +5415,7 @@
         <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW27" t="n">
         <v>18</v>
@@ -5360,7 +5427,7 @@
         <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>11</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5551,7 +5618,7 @@
         <v>24</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5670,10 +5737,10 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -5840,22 +5907,22 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF30" t="n">
         <v>9</v>
       </c>
-      <c r="AF30" t="n">
-        <v>10</v>
-      </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" t="n">
-        <v>0.225</v>
+        <v>0.229</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K31" t="n">
         <v>0.448</v>
@@ -5974,7 +6041,7 @@
         <v>14.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O31" t="n">
         <v>17.8</v>
@@ -5983,22 +6050,22 @@
         <v>23.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="T31" t="n">
-        <v>39.9</v>
+        <v>39.7</v>
       </c>
       <c r="U31" t="n">
         <v>20.2</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W31" t="n">
         <v>7.6</v>
@@ -6007,28 +6074,28 @@
         <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z31" t="n">
         <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8</v>
+        <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6055,7 +6122,7 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
         <v>22</v>
@@ -6070,10 +6137,10 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6085,13 +6152,13 @@
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-21-2008-09</t>
+          <t>2009-03-21</t>
         </is>
       </c>
     </row>
